--- a/Code/Results/Cases/Case_0_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_97/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.781198664820738</v>
+        <v>9.145899015680611</v>
       </c>
       <c r="D2">
-        <v>4.307564524289409</v>
+        <v>4.148400511839286</v>
       </c>
       <c r="E2">
-        <v>19.38539023028354</v>
+        <v>13.68587817337193</v>
       </c>
       <c r="F2">
-        <v>14.00177136465561</v>
+        <v>19.68404746984577</v>
       </c>
       <c r="G2">
-        <v>18.30334629149555</v>
+        <v>20.84670869758471</v>
       </c>
       <c r="H2">
-        <v>5.060863013378323</v>
+        <v>12.29785567224677</v>
       </c>
       <c r="I2">
-        <v>8.061546096679612</v>
+        <v>18.321658343957</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.33033640198031</v>
+        <v>10.06387030611737</v>
       </c>
       <c r="M2">
-        <v>99.99908124923057</v>
+        <v>58.85590366335928</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.813837061281779</v>
+        <v>17.65671855882755</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.096362150428616</v>
+        <v>9.246283828571988</v>
       </c>
       <c r="D3">
-        <v>4.011633628717028</v>
+        <v>4.101087588320247</v>
       </c>
       <c r="E3">
-        <v>17.68454615103325</v>
+        <v>13.45682196301882</v>
       </c>
       <c r="F3">
-        <v>12.62224093703211</v>
+        <v>19.89025507144932</v>
       </c>
       <c r="G3">
-        <v>16.18211823083842</v>
+        <v>21.18488138666099</v>
       </c>
       <c r="H3">
-        <v>5.185597521063245</v>
+        <v>12.42810655197687</v>
       </c>
       <c r="I3">
-        <v>6.757929316247695</v>
+        <v>18.64545815760614</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.14344297276406</v>
+        <v>9.923123591576811</v>
       </c>
       <c r="M3">
-        <v>92.49050563326693</v>
+        <v>55.35953999374686</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.639089222994699</v>
+        <v>17.89524458316773</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.707273129666474</v>
+        <v>9.313172109144361</v>
       </c>
       <c r="D4">
-        <v>3.823018173523411</v>
+        <v>4.071923752072204</v>
       </c>
       <c r="E4">
-        <v>16.64121632186787</v>
+        <v>13.32156133738739</v>
       </c>
       <c r="F4">
-        <v>12.02651847164608</v>
+        <v>20.02929859891062</v>
       </c>
       <c r="G4">
-        <v>14.96963543255018</v>
+        <v>21.41357065458133</v>
       </c>
       <c r="H4">
-        <v>5.298206161788356</v>
+        <v>12.51223198059913</v>
       </c>
       <c r="I4">
-        <v>6.10774226924512</v>
+        <v>18.85344016094728</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.40703128410508</v>
+        <v>9.840023427189752</v>
       </c>
       <c r="M4">
-        <v>87.75123188070081</v>
+        <v>53.08749631625405</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.234522422868986</v>
+        <v>18.05074953070989</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.555717394393313</v>
+        <v>9.34172424007698</v>
       </c>
       <c r="D5">
-        <v>3.744256944010132</v>
+        <v>4.060021484112732</v>
       </c>
       <c r="E5">
-        <v>16.21426538334735</v>
+        <v>13.26785949364632</v>
       </c>
       <c r="F5">
-        <v>11.85424471390089</v>
+        <v>20.08902125267091</v>
       </c>
       <c r="G5">
-        <v>14.497626646047</v>
+        <v>21.51188567224809</v>
       </c>
       <c r="H5">
-        <v>5.351493236605644</v>
+        <v>12.54755272274434</v>
       </c>
       <c r="I5">
-        <v>6.195633684664208</v>
+        <v>18.94048817707499</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.10369576779523</v>
+        <v>9.807029146828707</v>
       </c>
       <c r="M5">
-        <v>85.78174771296909</v>
+        <v>52.13026893778299</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.20982202755842</v>
+        <v>18.11636467665917</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.530953978311451</v>
+        <v>9.346542759417176</v>
       </c>
       <c r="D6">
-        <v>3.731060088872069</v>
+        <v>4.058044366339313</v>
       </c>
       <c r="E6">
-        <v>16.14321245291927</v>
+        <v>13.25902982790774</v>
       </c>
       <c r="F6">
-        <v>11.82676532316286</v>
+        <v>20.09912118742555</v>
       </c>
       <c r="G6">
-        <v>14.42058507479431</v>
+        <v>21.52851532004852</v>
       </c>
       <c r="H6">
-        <v>5.360745774870215</v>
+        <v>12.55348031887444</v>
       </c>
       <c r="I6">
-        <v>6.212174523010842</v>
+        <v>18.95508064800817</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.0530983124262</v>
+        <v>9.801603998730732</v>
       </c>
       <c r="M6">
-        <v>85.45226483997206</v>
+        <v>51.96943409442011</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.206993358796302</v>
+        <v>18.12739480894212</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.705201811732803</v>
+        <v>9.313551964551179</v>
       </c>
       <c r="D7">
-        <v>3.821963842932853</v>
+        <v>4.071763291517155</v>
       </c>
       <c r="E7">
-        <v>16.63546787008812</v>
+        <v>13.32083127046436</v>
       </c>
       <c r="F7">
-        <v>12.02411886718863</v>
+        <v>20.0300917286892</v>
       </c>
       <c r="G7">
-        <v>14.9631803791598</v>
+        <v>21.41487604584611</v>
       </c>
       <c r="H7">
-        <v>5.298896820315922</v>
+        <v>12.5127041279671</v>
       </c>
       <c r="I7">
-        <v>6.108791401317885</v>
+        <v>18.85460484839371</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.40295504809921</v>
+        <v>9.839574887957761</v>
       </c>
       <c r="M7">
-        <v>87.7248320596546</v>
+        <v>53.074713512437</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.234102088642667</v>
+        <v>18.05162538530502</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.53790149451059</v>
+        <v>9.179405691058532</v>
       </c>
       <c r="D8">
-        <v>4.206850941521223</v>
+        <v>4.132116986411867</v>
       </c>
       <c r="E8">
-        <v>18.79733070568688</v>
+        <v>13.60582248875627</v>
       </c>
       <c r="F8">
-        <v>13.51735238226937</v>
+        <v>19.75252841025154</v>
       </c>
       <c r="G8">
-        <v>17.55264078051264</v>
+        <v>20.95883678250124</v>
       </c>
       <c r="H8">
-        <v>5.095294764678406</v>
+        <v>12.34190169859194</v>
       </c>
       <c r="I8">
-        <v>7.600795512226973</v>
+        <v>18.43139446752656</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.92178647165887</v>
+        <v>10.01467349232377</v>
       </c>
       <c r="M8">
-        <v>97.43297637066975</v>
+        <v>57.67642492181633</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.401592060639237</v>
+        <v>17.73706580127178</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.485257362345045</v>
+        <v>8.959249235043549</v>
       </c>
       <c r="D9">
-        <v>4.917329001590877</v>
+        <v>4.24910639290106</v>
       </c>
       <c r="E9">
-        <v>23.17638480358215</v>
+        <v>14.2044363412187</v>
       </c>
       <c r="F9">
-        <v>17.24234792447178</v>
+        <v>19.30982799793007</v>
       </c>
       <c r="G9">
-        <v>23.43600879601236</v>
+        <v>20.23956712528417</v>
       </c>
       <c r="H9">
-        <v>5.602231088061941</v>
+        <v>12.04011839667758</v>
       </c>
       <c r="I9">
-        <v>11.19807238228863</v>
+        <v>17.67479362994258</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.92291508602787</v>
+        <v>10.38277865899514</v>
       </c>
       <c r="M9">
-        <v>115.8101465171603</v>
+        <v>65.702954612356</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.57062961885028</v>
+        <v>17.19342815316688</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.27155627019525</v>
+        <v>8.825464005300313</v>
       </c>
       <c r="D10">
-        <v>5.437020558363245</v>
+        <v>4.333623478400617</v>
       </c>
       <c r="E10">
-        <v>26.78159109691769</v>
+        <v>14.66447121800548</v>
       </c>
       <c r="F10">
-        <v>20.38992728698043</v>
+        <v>19.05067911349196</v>
       </c>
       <c r="G10">
-        <v>28.54926679530357</v>
+        <v>19.82928132666515</v>
       </c>
       <c r="H10">
-        <v>6.834649873491625</v>
+        <v>11.83893819369574</v>
       </c>
       <c r="I10">
-        <v>14.32027491451267</v>
+        <v>17.16449974536286</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.33107774161116</v>
+        <v>10.66613220193693</v>
       </c>
       <c r="M10">
-        <v>129.7288296815546</v>
+        <v>70.99059548146445</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.25939617165239</v>
+        <v>16.84072006965356</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.24337803726683</v>
+        <v>8.771098756198125</v>
       </c>
       <c r="D11">
-        <v>5.684876960064175</v>
+        <v>4.371638552450988</v>
       </c>
       <c r="E11">
-        <v>28.64941835847595</v>
+        <v>14.87730655537552</v>
       </c>
       <c r="F11">
-        <v>22.00513112774256</v>
+        <v>18.94806454407263</v>
       </c>
       <c r="G11">
-        <v>31.21220329866751</v>
+        <v>19.67089011756925</v>
       </c>
       <c r="H11">
-        <v>7.483634184088168</v>
+        <v>11.75195456684492</v>
       </c>
       <c r="I11">
-        <v>15.95372730513986</v>
+        <v>16.9424853495399</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.55997033319419</v>
+        <v>10.79737791041067</v>
       </c>
       <c r="M11">
-        <v>136.5361195722432</v>
+        <v>73.26415495466185</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.64786538012994</v>
+        <v>16.6908978688387</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.64956813662442</v>
+        <v>8.751483668288399</v>
       </c>
       <c r="D12">
-        <v>5.782602345737282</v>
+        <v>4.385961919048323</v>
       </c>
       <c r="E12">
-        <v>29.41581150229848</v>
+        <v>14.95834609169045</v>
       </c>
       <c r="F12">
-        <v>22.66068946915781</v>
+        <v>18.91148171829154</v>
       </c>
       <c r="G12">
-        <v>32.30026605651027</v>
+        <v>19.61519621317324</v>
       </c>
       <c r="H12">
-        <v>7.749769745047069</v>
+        <v>11.71967560949639</v>
       </c>
       <c r="I12">
-        <v>16.62351526629424</v>
+        <v>16.85989339022878</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.06087056225455</v>
+        <v>10.84737676562338</v>
       </c>
       <c r="M12">
-        <v>139.2527840548486</v>
+        <v>74.10619888971421</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.21358921332299</v>
+        <v>16.63573697263057</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.55997997424886</v>
+        <v>8.755664279578779</v>
       </c>
       <c r="D13">
-        <v>5.761323588301323</v>
+        <v>4.38288048786799</v>
       </c>
       <c r="E13">
-        <v>29.24742348440913</v>
+        <v>14.94087412506914</v>
       </c>
       <c r="F13">
-        <v>22.51708161108808</v>
+        <v>18.91925803219631</v>
       </c>
       <c r="G13">
-        <v>32.06155283559875</v>
+        <v>19.62699669899287</v>
       </c>
       <c r="H13">
-        <v>7.691339704908498</v>
+        <v>11.72659798233197</v>
       </c>
       <c r="I13">
-        <v>16.47643486542524</v>
+        <v>16.87761479290711</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.9509744576516</v>
+        <v>10.83659592211951</v>
       </c>
       <c r="M13">
-        <v>138.6596390932941</v>
+        <v>73.92568938670122</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.0895428861478</v>
+        <v>16.64754612043265</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.27589021225542</v>
+        <v>8.769465309381578</v>
       </c>
       <c r="D14">
-        <v>5.692818926515374</v>
+        <v>4.372818445541536</v>
       </c>
       <c r="E14">
-        <v>28.71104514386592</v>
+        <v>14.88396522543873</v>
       </c>
       <c r="F14">
-        <v>22.05802388753845</v>
+        <v>18.94500880143811</v>
       </c>
       <c r="G14">
-        <v>31.29983619885048</v>
+        <v>19.66622096722767</v>
       </c>
       <c r="H14">
-        <v>7.505050236948492</v>
+        <v>11.74928568622918</v>
       </c>
       <c r="I14">
-        <v>16.00761590066699</v>
+        <v>16.93566064393773</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.60031773455731</v>
+        <v>10.80148557133732</v>
       </c>
       <c r="M14">
-        <v>136.7561928607816</v>
+        <v>73.33380891113067</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.69345981589378</v>
+        <v>16.68632794221007</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.10754141540395</v>
+        <v>8.77804656268926</v>
       </c>
       <c r="D15">
-        <v>5.651462439422275</v>
+        <v>4.366645472902155</v>
       </c>
       <c r="E15">
-        <v>28.39138148506132</v>
+        <v>14.84916262643076</v>
       </c>
       <c r="F15">
-        <v>21.78334889144624</v>
+        <v>18.96108053302786</v>
       </c>
       <c r="G15">
-        <v>30.84505074930809</v>
+        <v>19.69081174786861</v>
       </c>
       <c r="H15">
-        <v>7.393945431895409</v>
+        <v>11.76326873483887</v>
       </c>
       <c r="I15">
-        <v>15.72805396413299</v>
+        <v>16.97140893917566</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.39089822366951</v>
+        <v>10.78001727695824</v>
       </c>
       <c r="M15">
-        <v>135.611549150522</v>
+        <v>72.96880506659008</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.45677796475931</v>
+        <v>16.71028924591452</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.21228061020918</v>
+        <v>8.829150786474882</v>
       </c>
       <c r="D16">
-        <v>5.421202408401007</v>
+        <v>4.331129546497907</v>
       </c>
       <c r="E16">
-        <v>26.66588838133882</v>
+        <v>14.65062767254034</v>
       </c>
       <c r="F16">
-        <v>20.2892456538267</v>
+        <v>19.05769926411377</v>
       </c>
       <c r="G16">
-        <v>28.38412227377909</v>
+        <v>19.84021999085018</v>
       </c>
       <c r="H16">
-        <v>6.794530763177294</v>
+        <v>11.844714675669</v>
       </c>
       <c r="I16">
-        <v>14.21920313304211</v>
+        <v>17.17921460825352</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.25455729544028</v>
+        <v>10.65759889227263</v>
       </c>
       <c r="M16">
-        <v>129.2982930589168</v>
+        <v>70.8393644773236</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.17307674661845</v>
+        <v>16.8507289523717</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.711309192896726</v>
+        <v>8.862191328874101</v>
       </c>
       <c r="D17">
-        <v>5.283957846712204</v>
+        <v>4.30922377273783</v>
       </c>
       <c r="E17">
-        <v>25.67860486865814</v>
+        <v>14.52969564068276</v>
       </c>
       <c r="F17">
-        <v>19.42821262630122</v>
+        <v>19.12093928326897</v>
       </c>
       <c r="G17">
-        <v>26.97592915251448</v>
+        <v>19.9392698017773</v>
       </c>
       <c r="H17">
-        <v>6.453155748219687</v>
+        <v>11.89584584812341</v>
       </c>
       <c r="I17">
-        <v>13.35821157769814</v>
+        <v>17.30930547731734</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.59963565939021</v>
+        <v>10.58307250759352</v>
       </c>
       <c r="M17">
-        <v>125.5816731228686</v>
+        <v>69.49929049673592</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.43583553921934</v>
+        <v>16.93963726909888</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.436860516935781</v>
+        <v>8.881804258919246</v>
       </c>
       <c r="D18">
-        <v>5.205908492234747</v>
+        <v>4.296584046275397</v>
       </c>
       <c r="E18">
-        <v>25.12997376867287</v>
+        <v>14.46047810220089</v>
       </c>
       <c r="F18">
-        <v>18.94874497031512</v>
+        <v>19.15874609185537</v>
       </c>
       <c r="G18">
-        <v>26.19503823047431</v>
+        <v>19.99888595468576</v>
       </c>
       <c r="H18">
-        <v>6.264468493901725</v>
+        <v>11.92568142952059</v>
       </c>
       <c r="I18">
-        <v>12.88131223093608</v>
+        <v>17.38508127314905</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.23412388630811</v>
+        <v>10.54043003887487</v>
       </c>
       <c r="M18">
-        <v>123.482814918955</v>
+        <v>68.71610384660585</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.02599221702297</v>
+        <v>16.99177230109662</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.346000223098041</v>
+        <v>8.88854831110303</v>
       </c>
       <c r="D19">
-        <v>5.179593344676126</v>
+        <v>4.292297874035548</v>
       </c>
       <c r="E19">
-        <v>24.94701832178642</v>
+        <v>14.43710266359575</v>
       </c>
       <c r="F19">
-        <v>18.78878179014569</v>
+        <v>19.17179053719121</v>
       </c>
       <c r="G19">
-        <v>25.93504418507301</v>
+        <v>20.01951857540693</v>
       </c>
       <c r="H19">
-        <v>6.201754583704384</v>
+        <v>11.93585622992027</v>
       </c>
       <c r="I19">
-        <v>12.72259940259243</v>
+        <v>17.41090028186468</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.11197721183373</v>
+        <v>10.52603154649117</v>
       </c>
       <c r="M19">
-        <v>122.7775084629404</v>
+        <v>68.44879738832633</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.88935749575797</v>
+        <v>17.00959428086438</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.763147524937946</v>
+        <v>8.858610820671792</v>
       </c>
       <c r="D20">
-        <v>5.298465024177824</v>
+        <v>4.311559903876983</v>
       </c>
       <c r="E20">
-        <v>25.78158590013749</v>
+        <v>14.54253444673071</v>
       </c>
       <c r="F20">
-        <v>19.51815380957496</v>
+        <v>19.11405841710943</v>
       </c>
       <c r="G20">
-        <v>27.12267591950614</v>
+        <v>19.92845039806342</v>
       </c>
       <c r="H20">
-        <v>6.488666099202208</v>
+        <v>11.89035867391439</v>
       </c>
       <c r="I20">
-        <v>13.44787067416404</v>
+        <v>17.2953584913451</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.66811705369167</v>
+        <v>10.590983157167</v>
       </c>
       <c r="M20">
-        <v>125.9729538234902</v>
+        <v>69.64322790000821</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.51276869914621</v>
+        <v>16.93006928840307</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.35810302099228</v>
+        <v>8.765384924206829</v>
       </c>
       <c r="D21">
-        <v>5.712806983058041</v>
+        <v>4.375775946060364</v>
       </c>
       <c r="E21">
-        <v>28.86665393722447</v>
+        <v>14.90066925048689</v>
       </c>
       <c r="F21">
-        <v>22.19144533147081</v>
+        <v>18.93738279727405</v>
       </c>
       <c r="G21">
-        <v>31.52101060763439</v>
+        <v>19.65458174428172</v>
       </c>
       <c r="H21">
-        <v>7.559116554233173</v>
+        <v>11.74260378401785</v>
       </c>
       <c r="I21">
-        <v>16.14366663050902</v>
+        <v>16.91857078918358</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.70214124480496</v>
+        <v>10.81179051999284</v>
       </c>
       <c r="M21">
-        <v>137.3106143651785</v>
+        <v>73.50817109016407</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.80850970359948</v>
+        <v>16.67489369917914</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.64558464543765</v>
+        <v>8.710140114885839</v>
       </c>
       <c r="D22">
-        <v>6.00945770474421</v>
+        <v>4.417320139892223</v>
       </c>
       <c r="E22">
-        <v>31.26598530078069</v>
+        <v>15.13728570531422</v>
       </c>
       <c r="F22">
-        <v>24.22021233038992</v>
+        <v>18.83521336918084</v>
       </c>
       <c r="G22">
-        <v>34.90580854127203</v>
+        <v>19.5006776370648</v>
       </c>
       <c r="H22">
-        <v>8.388872268409346</v>
+        <v>11.64988761970785</v>
       </c>
       <c r="I22">
-        <v>18.23437849215091</v>
+        <v>16.68095901764252</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.2627210737429</v>
+        <v>10.95782646458408</v>
       </c>
       <c r="M22">
-        <v>145.6337045783287</v>
+        <v>75.92398658534258</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.565313164622</v>
+        <v>16.51731662133108</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.92580403059314</v>
+        <v>8.739092197185098</v>
       </c>
       <c r="D23">
-        <v>5.847269518198758</v>
+        <v>4.395189275883757</v>
       </c>
       <c r="E23">
-        <v>29.93284803584814</v>
+        <v>15.01078733674188</v>
       </c>
       <c r="F23">
-        <v>23.10001215468728</v>
+        <v>18.88849998915659</v>
       </c>
       <c r="G23">
-        <v>33.03179552413892</v>
+        <v>19.58044912576278</v>
       </c>
       <c r="H23">
-        <v>7.928963808435313</v>
+        <v>11.69901694570854</v>
       </c>
       <c r="I23">
-        <v>17.07473519748653</v>
+        <v>16.80697726778801</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.39775952970454</v>
+        <v>10.87973884669911</v>
       </c>
       <c r="M23">
-        <v>141.060976702854</v>
+        <v>74.64467714396977</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.59349753615657</v>
+        <v>16.60056134043692</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.73967007035005</v>
+        <v>8.860227647962441</v>
       </c>
       <c r="D24">
-        <v>5.291903800125482</v>
+        <v>4.310503880901971</v>
       </c>
       <c r="E24">
-        <v>25.7349706577933</v>
+        <v>14.53672905821808</v>
       </c>
       <c r="F24">
-        <v>19.47744401049122</v>
+        <v>19.11716474847106</v>
       </c>
       <c r="G24">
-        <v>27.05624418218135</v>
+        <v>19.93333354746756</v>
       </c>
       <c r="H24">
-        <v>6.472588735560344</v>
+        <v>11.89283805673774</v>
       </c>
       <c r="I24">
-        <v>13.40728066086731</v>
+        <v>17.30166085803143</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.63712329476024</v>
+        <v>10.58740611494657</v>
       </c>
       <c r="M24">
-        <v>125.7959420538723</v>
+        <v>69.57819354903778</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.47794455813443</v>
+        <v>16.93439179738543</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.912826728990864</v>
+        <v>9.014034145972282</v>
       </c>
       <c r="D25">
-        <v>4.728005905797604</v>
+        <v>4.217667030888695</v>
       </c>
       <c r="E25">
-        <v>21.95374728227494</v>
+        <v>14.0386526210789</v>
       </c>
       <c r="F25">
-        <v>16.18160234197895</v>
+        <v>19.41828935197196</v>
       </c>
       <c r="G25">
-        <v>21.73839393729031</v>
+        <v>20.41425558608268</v>
       </c>
       <c r="H25">
-        <v>5.199210501590243</v>
+        <v>12.11817678193249</v>
       </c>
       <c r="I25">
-        <v>10.16241105900088</v>
+        <v>17.87154129904593</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.09411411342241</v>
+        <v>10.28077159938315</v>
       </c>
       <c r="M25">
-        <v>110.8464897693434</v>
+        <v>63.63863421308407</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.66778431076614</v>
+        <v>17.33245335165062</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_97/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.145899015680611</v>
+        <v>6.781198664820722</v>
       </c>
       <c r="D2">
-        <v>4.148400511839286</v>
+        <v>4.307564524289417</v>
       </c>
       <c r="E2">
-        <v>13.68587817337193</v>
+        <v>19.38539023028354</v>
       </c>
       <c r="F2">
-        <v>19.68404746984577</v>
+        <v>14.0017713646557</v>
       </c>
       <c r="G2">
-        <v>20.84670869758471</v>
+        <v>18.3033462914956</v>
       </c>
       <c r="H2">
-        <v>12.29785567224677</v>
+        <v>5.060863013378255</v>
       </c>
       <c r="I2">
-        <v>18.321658343957</v>
+        <v>8.061546096679701</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.06387030611737</v>
+        <v>14.33033640198028</v>
       </c>
       <c r="M2">
-        <v>58.85590366335928</v>
+        <v>99.99908124923058</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.65671855882755</v>
+        <v>9.813837061281836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283828571988</v>
+        <v>6.096362150428538</v>
       </c>
       <c r="D3">
-        <v>4.101087588320247</v>
+        <v>4.011633628716932</v>
       </c>
       <c r="E3">
-        <v>13.45682196301882</v>
+        <v>17.68454615103321</v>
       </c>
       <c r="F3">
-        <v>19.89025507144932</v>
+        <v>12.62224093703215</v>
       </c>
       <c r="G3">
-        <v>21.18488138666099</v>
+        <v>16.18211823083842</v>
       </c>
       <c r="H3">
-        <v>12.42810655197687</v>
+        <v>5.185597521063205</v>
       </c>
       <c r="I3">
-        <v>18.64545815760614</v>
+        <v>6.757929316247728</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.923123591576811</v>
+        <v>13.14344297276402</v>
       </c>
       <c r="M3">
-        <v>55.35953999374686</v>
+        <v>92.49050563326672</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.89524458316773</v>
+        <v>8.639089222994748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.313172109144361</v>
+        <v>5.707273129666437</v>
       </c>
       <c r="D4">
-        <v>4.071923752072204</v>
+        <v>3.823018173523385</v>
       </c>
       <c r="E4">
-        <v>13.32156133738739</v>
+        <v>16.64121632186788</v>
       </c>
       <c r="F4">
-        <v>20.02929859891062</v>
+        <v>12.02651847164609</v>
       </c>
       <c r="G4">
-        <v>21.41357065458133</v>
+        <v>14.96963543255026</v>
       </c>
       <c r="H4">
-        <v>12.51223198059913</v>
+        <v>5.298206161788356</v>
       </c>
       <c r="I4">
-        <v>18.85344016094728</v>
+        <v>6.107742269245101</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.840023427189752</v>
+        <v>12.40703128410509</v>
       </c>
       <c r="M4">
-        <v>53.08749631625405</v>
+        <v>87.75123188070076</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.05074953070989</v>
+        <v>8.23452242286899</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.34172424007698</v>
+        <v>5.555717394393331</v>
       </c>
       <c r="D5">
-        <v>4.060021484112732</v>
+        <v>3.744256944010117</v>
       </c>
       <c r="E5">
-        <v>13.26785949364632</v>
+        <v>16.21426538334727</v>
       </c>
       <c r="F5">
-        <v>20.08902125267091</v>
+        <v>11.85424471390088</v>
       </c>
       <c r="G5">
-        <v>21.51188567224809</v>
+        <v>14.49762664604712</v>
       </c>
       <c r="H5">
-        <v>12.54755272274434</v>
+        <v>5.351493236605555</v>
       </c>
       <c r="I5">
-        <v>18.94048817707499</v>
+        <v>6.195633684664148</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.807029146828707</v>
+        <v>12.10369576779517</v>
       </c>
       <c r="M5">
-        <v>52.13026893778299</v>
+        <v>85.78174771296891</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.11636467665917</v>
+        <v>8.209822027558381</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.346542759417176</v>
+        <v>5.530953978311436</v>
       </c>
       <c r="D6">
-        <v>4.058044366339313</v>
+        <v>3.731060088872025</v>
       </c>
       <c r="E6">
-        <v>13.25902982790774</v>
+        <v>16.14321245291931</v>
       </c>
       <c r="F6">
-        <v>20.09912118742555</v>
+        <v>11.82676532316281</v>
       </c>
       <c r="G6">
-        <v>21.52851532004852</v>
+        <v>14.42058507479426</v>
       </c>
       <c r="H6">
-        <v>12.55348031887444</v>
+        <v>5.360745774870203</v>
       </c>
       <c r="I6">
-        <v>18.95508064800817</v>
+        <v>6.212174523010775</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.801603998730732</v>
+        <v>12.05309831242623</v>
       </c>
       <c r="M6">
-        <v>51.96943409442011</v>
+        <v>85.45226483997226</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.12739480894212</v>
+        <v>8.206993358796263</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.313551964551179</v>
+        <v>5.70520181173282</v>
       </c>
       <c r="D7">
-        <v>4.071763291517155</v>
+        <v>3.821963842932905</v>
       </c>
       <c r="E7">
-        <v>13.32083127046436</v>
+        <v>16.63546787008816</v>
       </c>
       <c r="F7">
-        <v>20.0300917286892</v>
+        <v>12.02411886718863</v>
       </c>
       <c r="G7">
-        <v>21.41487604584611</v>
+        <v>14.96318037915978</v>
       </c>
       <c r="H7">
-        <v>12.5127041279671</v>
+        <v>5.298896820315909</v>
       </c>
       <c r="I7">
-        <v>18.85460484839371</v>
+        <v>6.108791401317889</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.839574887957761</v>
+        <v>12.40295504809927</v>
       </c>
       <c r="M7">
-        <v>53.074713512437</v>
+        <v>87.7248320596546</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.05162538530502</v>
+        <v>8.234102088642658</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.179405691058532</v>
+        <v>6.537901494510594</v>
       </c>
       <c r="D8">
-        <v>4.132116986411867</v>
+        <v>4.20685094152121</v>
       </c>
       <c r="E8">
-        <v>13.60582248875627</v>
+        <v>18.79733070568692</v>
       </c>
       <c r="F8">
-        <v>19.75252841025154</v>
+        <v>13.51735238226941</v>
       </c>
       <c r="G8">
-        <v>20.95883678250124</v>
+        <v>17.55264078051268</v>
       </c>
       <c r="H8">
-        <v>12.34190169859194</v>
+        <v>5.095294764678406</v>
       </c>
       <c r="I8">
-        <v>18.43139446752656</v>
+        <v>7.600795512226985</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.01467349232377</v>
+        <v>13.92178647165894</v>
       </c>
       <c r="M8">
-        <v>57.67642492181633</v>
+        <v>97.43297637067005</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.73706580127178</v>
+        <v>9.401592060639251</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.959249235043549</v>
+        <v>8.485257362345058</v>
       </c>
       <c r="D9">
-        <v>4.24910639290106</v>
+        <v>4.917329001590847</v>
       </c>
       <c r="E9">
-        <v>14.2044363412187</v>
+        <v>23.17638480358206</v>
       </c>
       <c r="F9">
-        <v>19.30982799793007</v>
+        <v>17.24234792447178</v>
       </c>
       <c r="G9">
-        <v>20.23956712528417</v>
+        <v>23.43600879601225</v>
       </c>
       <c r="H9">
-        <v>12.04011839667758</v>
+        <v>5.602231088061907</v>
       </c>
       <c r="I9">
-        <v>17.67479362994258</v>
+        <v>11.19807238228852</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.38277865899514</v>
+        <v>16.92291508602782</v>
       </c>
       <c r="M9">
-        <v>65.702954612356</v>
+        <v>115.8101465171603</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.19342815316688</v>
+        <v>12.57062961885024</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.825464005300313</v>
+        <v>10.27155627019521</v>
       </c>
       <c r="D10">
-        <v>4.333623478400617</v>
+        <v>5.437020558363233</v>
       </c>
       <c r="E10">
-        <v>14.66447121800548</v>
+        <v>26.78159109691769</v>
       </c>
       <c r="F10">
-        <v>19.05067911349196</v>
+        <v>20.38992728698048</v>
       </c>
       <c r="G10">
-        <v>19.82928132666515</v>
+        <v>28.54926679530369</v>
       </c>
       <c r="H10">
-        <v>11.83893819369574</v>
+        <v>6.834649873491625</v>
       </c>
       <c r="I10">
-        <v>17.16449974536286</v>
+        <v>14.3202749145127</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.66613220193693</v>
+        <v>19.33107774161115</v>
       </c>
       <c r="M10">
-        <v>70.99059548146445</v>
+        <v>129.7288296815544</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.84072006965356</v>
+        <v>15.25939617165243</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.771098756198125</v>
+        <v>11.24337803726685</v>
       </c>
       <c r="D11">
-        <v>4.371638552450988</v>
+        <v>5.684876960064274</v>
       </c>
       <c r="E11">
-        <v>14.87730655537552</v>
+        <v>28.64941835847602</v>
       </c>
       <c r="F11">
-        <v>18.94806454407263</v>
+        <v>22.0051311277426</v>
       </c>
       <c r="G11">
-        <v>19.67089011756925</v>
+        <v>31.21220329866767</v>
       </c>
       <c r="H11">
-        <v>11.75195456684492</v>
+        <v>7.483634184088168</v>
       </c>
       <c r="I11">
-        <v>16.9424853495399</v>
+        <v>15.95372730513994</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.79737791041067</v>
+        <v>20.55997033319424</v>
       </c>
       <c r="M11">
-        <v>73.26415495466185</v>
+        <v>136.5361195722433</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.6908978688387</v>
+        <v>16.64786538013001</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.751483668288399</v>
+        <v>11.64956813662455</v>
       </c>
       <c r="D12">
-        <v>4.385961919048323</v>
+        <v>5.782602345737216</v>
       </c>
       <c r="E12">
-        <v>14.95834609169045</v>
+        <v>29.41581150229845</v>
       </c>
       <c r="F12">
-        <v>18.91148171829154</v>
+        <v>22.66068946915767</v>
       </c>
       <c r="G12">
-        <v>19.61519621317324</v>
+        <v>32.30026605650981</v>
       </c>
       <c r="H12">
-        <v>11.71967560949639</v>
+        <v>7.749769745047018</v>
       </c>
       <c r="I12">
-        <v>16.85989339022878</v>
+        <v>16.62351526629408</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.84737676562338</v>
+        <v>21.06087056225455</v>
       </c>
       <c r="M12">
-        <v>74.10619888971421</v>
+        <v>139.2527840548486</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.63573697263057</v>
+        <v>17.21358921332283</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.755664279578779</v>
+        <v>11.55997997424887</v>
       </c>
       <c r="D13">
-        <v>4.38288048786799</v>
+        <v>5.761323588301322</v>
       </c>
       <c r="E13">
-        <v>14.94087412506914</v>
+        <v>29.24742348440917</v>
       </c>
       <c r="F13">
-        <v>18.91925803219631</v>
+        <v>22.51708161108811</v>
       </c>
       <c r="G13">
-        <v>19.62699669899287</v>
+        <v>32.06155283559873</v>
       </c>
       <c r="H13">
-        <v>11.72659798233197</v>
+        <v>7.691339704908544</v>
       </c>
       <c r="I13">
-        <v>16.87761479290711</v>
+        <v>16.47643486542527</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.83659592211951</v>
+        <v>20.95097445765158</v>
       </c>
       <c r="M13">
-        <v>73.92568938670122</v>
+        <v>138.6596390932943</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.64754612043265</v>
+        <v>17.08954288614783</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.769465309381578</v>
+        <v>11.27589021225531</v>
       </c>
       <c r="D14">
-        <v>4.372818445541536</v>
+        <v>5.692818926515331</v>
       </c>
       <c r="E14">
-        <v>14.88396522543873</v>
+        <v>28.71104514386579</v>
       </c>
       <c r="F14">
-        <v>18.94500880143811</v>
+        <v>22.05802388753839</v>
       </c>
       <c r="G14">
-        <v>19.66622096722767</v>
+        <v>31.29983619885036</v>
       </c>
       <c r="H14">
-        <v>11.74928568622918</v>
+        <v>7.505050236948454</v>
       </c>
       <c r="I14">
-        <v>16.93566064393773</v>
+        <v>16.00761590066687</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.80148557133732</v>
+        <v>20.60031773455722</v>
       </c>
       <c r="M14">
-        <v>73.33380891113067</v>
+        <v>136.7561928607813</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.68632794221007</v>
+        <v>16.69345981589371</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.77804656268926</v>
+        <v>11.10754141540371</v>
       </c>
       <c r="D15">
-        <v>4.366645472902155</v>
+        <v>5.651462439422168</v>
       </c>
       <c r="E15">
-        <v>14.84916262643076</v>
+        <v>28.39138148506104</v>
       </c>
       <c r="F15">
-        <v>18.96108053302786</v>
+        <v>21.78334889144623</v>
       </c>
       <c r="G15">
-        <v>19.69081174786861</v>
+        <v>30.84505074930776</v>
       </c>
       <c r="H15">
-        <v>11.76326873483887</v>
+        <v>7.393945431895379</v>
       </c>
       <c r="I15">
-        <v>16.97140893917566</v>
+        <v>15.72805396413287</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.78001727695824</v>
+        <v>20.39089822366933</v>
       </c>
       <c r="M15">
-        <v>72.96880506659008</v>
+        <v>135.6115491505213</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.71028924591452</v>
+        <v>16.45677796475924</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.829150786474882</v>
+        <v>10.2122806102092</v>
       </c>
       <c r="D16">
-        <v>4.331129546497907</v>
+        <v>5.421202408401029</v>
       </c>
       <c r="E16">
-        <v>14.65062767254034</v>
+        <v>26.66588838133887</v>
       </c>
       <c r="F16">
-        <v>19.05769926411377</v>
+        <v>20.28924565382681</v>
       </c>
       <c r="G16">
-        <v>19.84021999085018</v>
+        <v>28.38412227377938</v>
       </c>
       <c r="H16">
-        <v>11.844714675669</v>
+        <v>6.794530763177334</v>
       </c>
       <c r="I16">
-        <v>17.17921460825352</v>
+        <v>14.21920313304222</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.65759889227263</v>
+        <v>19.25455729544034</v>
       </c>
       <c r="M16">
-        <v>70.8393644773236</v>
+        <v>129.2982930589169</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.8507289523717</v>
+        <v>15.17307674661857</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.862191328874101</v>
+        <v>9.711309192896939</v>
       </c>
       <c r="D17">
-        <v>4.30922377273783</v>
+        <v>5.283957846712187</v>
       </c>
       <c r="E17">
-        <v>14.52969564068276</v>
+        <v>25.67860486865829</v>
       </c>
       <c r="F17">
-        <v>19.12093928326897</v>
+        <v>19.42821262630144</v>
       </c>
       <c r="G17">
-        <v>19.9392698017773</v>
+        <v>26.97592915251473</v>
       </c>
       <c r="H17">
-        <v>11.89584584812341</v>
+        <v>6.453155748219733</v>
       </c>
       <c r="I17">
-        <v>17.30930547731734</v>
+        <v>13.35821157769835</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.58307250759352</v>
+        <v>18.59963565939021</v>
       </c>
       <c r="M17">
-        <v>69.49929049673592</v>
+        <v>125.5816731228689</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.93963726909888</v>
+        <v>14.43583553921952</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.881804258919246</v>
+        <v>9.436860516935875</v>
       </c>
       <c r="D18">
-        <v>4.296584046275397</v>
+        <v>5.205908492234753</v>
       </c>
       <c r="E18">
-        <v>14.46047810220089</v>
+        <v>25.12997376867275</v>
       </c>
       <c r="F18">
-        <v>19.15874609185537</v>
+        <v>18.94874497031517</v>
       </c>
       <c r="G18">
-        <v>19.99888595468576</v>
+        <v>26.19503823047451</v>
       </c>
       <c r="H18">
-        <v>11.92568142952059</v>
+        <v>6.26446849390174</v>
       </c>
       <c r="I18">
-        <v>17.38508127314905</v>
+        <v>12.88131223093616</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.54043003887487</v>
+        <v>18.23412388630803</v>
       </c>
       <c r="M18">
-        <v>68.71610384660585</v>
+        <v>123.4828149189548</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.99177230109662</v>
+        <v>14.02599221702302</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.88854831110303</v>
+        <v>9.346000223098134</v>
       </c>
       <c r="D19">
-        <v>4.292297874035548</v>
+        <v>5.179593344676109</v>
       </c>
       <c r="E19">
-        <v>14.43710266359575</v>
+        <v>24.94701832178654</v>
       </c>
       <c r="F19">
-        <v>19.17179053719121</v>
+        <v>18.78878179014584</v>
       </c>
       <c r="G19">
-        <v>20.01951857540693</v>
+        <v>25.93504418507318</v>
       </c>
       <c r="H19">
-        <v>11.93585622992027</v>
+        <v>6.201754583704423</v>
       </c>
       <c r="I19">
-        <v>17.41090028186468</v>
+        <v>12.72259940259258</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.52603154649117</v>
+        <v>18.11197721183375</v>
       </c>
       <c r="M19">
-        <v>68.44879738832633</v>
+        <v>122.7775084629407</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.00959428086438</v>
+        <v>13.88935749575809</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.858610820671792</v>
+        <v>9.763147524937931</v>
       </c>
       <c r="D20">
-        <v>4.311559903876983</v>
+        <v>5.298465024177824</v>
       </c>
       <c r="E20">
-        <v>14.54253444673071</v>
+        <v>25.78158590013755</v>
       </c>
       <c r="F20">
-        <v>19.11405841710943</v>
+        <v>19.51815380957513</v>
       </c>
       <c r="G20">
-        <v>19.92845039806342</v>
+        <v>27.12267591950654</v>
       </c>
       <c r="H20">
-        <v>11.89035867391439</v>
+        <v>6.488666099202285</v>
       </c>
       <c r="I20">
-        <v>17.2953584913451</v>
+        <v>13.44787067416425</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.590983157167</v>
+        <v>18.66811705369167</v>
       </c>
       <c r="M20">
-        <v>69.64322790000821</v>
+        <v>125.9729538234904</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.93006928840307</v>
+        <v>14.51276869914638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.765384924206829</v>
+        <v>11.35810302099248</v>
       </c>
       <c r="D21">
-        <v>4.375775946060364</v>
+        <v>5.712806983057921</v>
       </c>
       <c r="E21">
-        <v>14.90066925048689</v>
+        <v>28.86665393722444</v>
       </c>
       <c r="F21">
-        <v>18.93738279727405</v>
+        <v>22.19144533147054</v>
       </c>
       <c r="G21">
-        <v>19.65458174428172</v>
+        <v>31.52101060763378</v>
       </c>
       <c r="H21">
-        <v>11.74260378401785</v>
+        <v>7.559116554233067</v>
       </c>
       <c r="I21">
-        <v>16.91857078918358</v>
+        <v>16.14366663050873</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.81179051999284</v>
+        <v>20.70214124480491</v>
       </c>
       <c r="M21">
-        <v>73.50817109016407</v>
+        <v>137.3106143651781</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.67489369917914</v>
+        <v>16.80850970359917</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.710140114885839</v>
+        <v>12.64558464543764</v>
       </c>
       <c r="D22">
-        <v>4.417320139892223</v>
+        <v>6.009457704744172</v>
       </c>
       <c r="E22">
-        <v>15.13728570531422</v>
+        <v>31.26598530078066</v>
       </c>
       <c r="F22">
-        <v>18.83521336918084</v>
+        <v>24.22021233038987</v>
       </c>
       <c r="G22">
-        <v>19.5006776370648</v>
+        <v>34.90580854127182</v>
       </c>
       <c r="H22">
-        <v>11.64988761970785</v>
+        <v>8.388872268409338</v>
       </c>
       <c r="I22">
-        <v>16.68095901764252</v>
+        <v>18.23437849215084</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.95782646458408</v>
+        <v>22.26272107374286</v>
       </c>
       <c r="M22">
-        <v>75.92398658534258</v>
+        <v>145.6337045783285</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.51731662133108</v>
+        <v>18.56531316462192</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.739092197185098</v>
+        <v>11.92580403059313</v>
       </c>
       <c r="D23">
-        <v>4.395189275883757</v>
+        <v>5.847269518198759</v>
       </c>
       <c r="E23">
-        <v>15.01078733674188</v>
+        <v>29.93284803584804</v>
       </c>
       <c r="F23">
-        <v>18.88849998915659</v>
+        <v>23.10001215468717</v>
       </c>
       <c r="G23">
-        <v>19.58044912576278</v>
+        <v>33.03179552413872</v>
       </c>
       <c r="H23">
-        <v>11.69901694570854</v>
+        <v>7.928963808435268</v>
       </c>
       <c r="I23">
-        <v>16.80697726778801</v>
+        <v>17.07473519748642</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.87973884669911</v>
+        <v>21.39775952970452</v>
       </c>
       <c r="M23">
-        <v>74.64467714396977</v>
+        <v>141.0609767028537</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.60056134043692</v>
+        <v>17.59349753615647</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.860227647962441</v>
+        <v>9.739670070350158</v>
       </c>
       <c r="D24">
-        <v>4.310503880901971</v>
+        <v>5.291903800125382</v>
       </c>
       <c r="E24">
-        <v>14.53672905821808</v>
+        <v>25.73497065779329</v>
       </c>
       <c r="F24">
-        <v>19.11716474847106</v>
+        <v>19.47744401049108</v>
       </c>
       <c r="G24">
-        <v>19.93333354746756</v>
+        <v>27.05624418218105</v>
       </c>
       <c r="H24">
-        <v>11.89283805673774</v>
+        <v>6.472588735560254</v>
       </c>
       <c r="I24">
-        <v>17.30166085803143</v>
+        <v>13.40728066086715</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.58740611494657</v>
+        <v>18.63712329476023</v>
       </c>
       <c r="M24">
-        <v>69.57819354903778</v>
+        <v>125.7959420538722</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.93439179738543</v>
+        <v>14.47794455813427</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.014034145972282</v>
+        <v>7.91282672899085</v>
       </c>
       <c r="D25">
-        <v>4.217667030888695</v>
+        <v>4.72800590579755</v>
       </c>
       <c r="E25">
-        <v>14.0386526210789</v>
+        <v>21.95374728227488</v>
       </c>
       <c r="F25">
-        <v>19.41828935197196</v>
+        <v>16.18160234197899</v>
       </c>
       <c r="G25">
-        <v>20.41425558608268</v>
+        <v>21.73839393729045</v>
       </c>
       <c r="H25">
-        <v>12.11817678193249</v>
+        <v>5.19921050159025</v>
       </c>
       <c r="I25">
-        <v>17.87154129904593</v>
+        <v>10.16241105900089</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.28077159938315</v>
+        <v>16.09411411342238</v>
       </c>
       <c r="M25">
-        <v>63.63863421308407</v>
+        <v>110.8464897693433</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.33245335165062</v>
+        <v>11.66778431076616</v>
       </c>
     </row>
   </sheetData>
